--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>665737.1863649797</v>
+        <v>698124.847043375</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240763</v>
+        <v>6381813.161497335</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9753813.200707553</v>
+        <v>9428071.244257422</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>219.4052913553431</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4695742187183</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923704996</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>68.05955538367301</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>182.9825936935479</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>279.7739710956023</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>213.5510804631019</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>141.2450511376047</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>86.09595479932514</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.8586356038731</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>203.0643161007948</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>27.12785876520686</v>
       </c>
     </row>
     <row r="9">
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>140.756805188321</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1347,7 +1347,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>103.3387326418228</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>326.516701496798</v>
+        <v>102.6076185830468</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>40.99909855081558</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13.89072837997053</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>166.6163720000257</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>112.845262246047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744748</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320712</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>176.8030671570835</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>24.67503179724689</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>77.31354443380461</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2668480797613199</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>400.7258819646926</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>29.71145624902058</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>36.41670903609924</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>153.9472770949826</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>49.87303154284881</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>218.1043346164859</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>156.6378558758362</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>5.648630020763625</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>203.1002079700023</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>56.00855464855957</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>73.47202467993824</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
@@ -2845,22 +2845,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>261.2100966413622</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>283.8758740715558</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>11.16818915334145</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>191.2490250244969</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>172.5821082655277</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>80.76468634461104</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>213.2453069349063</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3322,13 +3322,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>347.3335962273659</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>90.41948680756566</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3483,7 +3483,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>196.8720157335364</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>87.44479881665143</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>13.67953319542637</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>60.10514086429243</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>233.1277209869649</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>33.3830437605888</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>175.2420117460547</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>163.2704070622395</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>24.14763241892726</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>315.3882082434901</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>270.0697021486467</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>42.32069823344337</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1457.824646659611</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C2" t="n">
-        <v>1457.824646659611</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D2" t="n">
-        <v>1099.55894805286</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.290404920691</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="X2" t="n">
-        <v>1457.824646659611</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="Y2" t="n">
-        <v>1457.824646659611</v>
+        <v>287.4747669672984</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>149.8542560755936</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542602</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756897</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057882</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380227</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>149.8542560755936</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>515.8118151303141</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>346.8756322024072</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U4" t="n">
-        <v>1244.744376093917</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="V4" t="n">
-        <v>990.0598878880302</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="W4" t="n">
-        <v>700.6427178510696</v>
+        <v>89.84413604019426</v>
       </c>
       <c r="X4" t="n">
-        <v>515.8118151303141</v>
+        <v>89.84413604019426</v>
       </c>
       <c r="Y4" t="n">
-        <v>515.8118151303141</v>
+        <v>89.84413604019426</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1488.368453810658</v>
+        <v>1439.551333730577</v>
       </c>
       <c r="C5" t="n">
-        <v>1488.368453810658</v>
+        <v>1070.588816790165</v>
       </c>
       <c r="D5" t="n">
-        <v>1130.102755203908</v>
+        <v>712.3231181834146</v>
       </c>
       <c r="E5" t="n">
-        <v>744.3145026056636</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="F5" t="n">
-        <v>333.3285978160561</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.50778578647</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="Y5" t="n">
-        <v>1488.368453810658</v>
+        <v>1826.151173794698</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>533.4666540631115</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>359.0136247819845</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>216.3418559561212</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>216.3418559561212</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>69.80729798300611</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>69.80729798300611</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>69.80729798300611</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>633.2955414799094</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>890.846677039897</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1210.753572508406</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1553.536096503038</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1844.895342757604</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2059.403758318504</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2029.49516640637</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1834.784844880346</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>1606.683255013611</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1371.531146781868</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1117.293790053666</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>909.4422898481334</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>701.6819910831796</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>219.2332512597245</v>
+        <v>425.1378485268058</v>
       </c>
       <c r="C7" t="n">
-        <v>219.2332512597245</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="D7" t="n">
-        <v>219.2332512597245</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T7" t="n">
-        <v>1501.235377040282</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="U7" t="n">
-        <v>1212.11703954412</v>
+        <v>1197.229057667671</v>
       </c>
       <c r="V7" t="n">
-        <v>957.4325513382325</v>
+        <v>942.5445694617837</v>
       </c>
       <c r="W7" t="n">
-        <v>668.015381301272</v>
+        <v>653.1273994248231</v>
       </c>
       <c r="X7" t="n">
-        <v>440.0258304032546</v>
+        <v>425.1378485268058</v>
       </c>
       <c r="Y7" t="n">
-        <v>219.2332512597245</v>
+        <v>425.1378485268058</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1302.576789404184</v>
+        <v>1099.359881775428</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.576789404184</v>
+        <v>1099.359881775428</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974335</v>
+        <v>741.0941831686771</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>1692.716121379996</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>1692.716121379996</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1302.576789404184</v>
+        <v>1099.359881775428</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>342.1642758038111</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>342.1642758038111</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>342.1642758038111</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>342.1642758038111</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387889</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W10" t="n">
-        <v>570.1538267018284</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X10" t="n">
-        <v>342.1642758038111</v>
+        <v>155.6293447920665</v>
       </c>
       <c r="Y10" t="n">
-        <v>342.1642758038111</v>
+        <v>51.24678656800311</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1848.950422814784</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C11" t="n">
-        <v>1848.950422814784</v>
+        <v>939.4077790033361</v>
       </c>
       <c r="D11" t="n">
-        <v>1490.684724208034</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="E11" t="n">
-        <v>1104.896471609789</v>
+        <v>581.1420803965857</v>
       </c>
       <c r="F11" t="n">
-        <v>693.9105668201819</v>
+        <v>170.1561756069781</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296683</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.7846764101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.7846764101</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.016021139986</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2235.550262878906</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2235.550262878906</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158125</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>249.4793381277373</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C13" t="n">
-        <v>80.54315519983038</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D13" t="n">
-        <v>80.54315519983038</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E13" t="n">
-        <v>80.54315519983038</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>80.54315519983038</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>80.54315519983038</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>80.54315519983038</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672846</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242372</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242372</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1169.327103036485</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>879.9099329995245</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>651.9203821015071</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.127802957977</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.583838282732</v>
+        <v>2102.480899540949</v>
       </c>
       <c r="C14" t="n">
-        <v>1678.62132134232</v>
+        <v>1733.518382600537</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1375.252683993787</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>989.4644313955425</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5293,37 +5293,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267228</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923657</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.034709923657</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X14" t="n">
-        <v>2161.568951662578</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y14" t="n">
-        <v>2047.583838282732</v>
+        <v>2489.080739605071</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218338</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,70 +5412,70 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X16" t="n">
         <v>468.9531604059532</v>
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1311.909787855436</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C17" t="n">
-        <v>942.9472709150248</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D17" t="n">
-        <v>584.6815723082743</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
-        <v>584.6815723082743</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>584.6815723082743</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5530,37 +5530,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794323</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450752</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180638</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919558</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y17" t="n">
-        <v>1698.509627919558</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="18">
@@ -5585,22 +5585,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,10 +5609,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C19" t="n">
-        <v>511.4317969248226</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124868</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300937</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484844</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610487</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046005</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676399</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X19" t="n">
-        <v>680.6375233676399</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y19" t="n">
-        <v>680.3679798527295</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1626.299101484275</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C20" t="n">
-        <v>1257.336584543864</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="D20" t="n">
-        <v>899.0708859371132</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="E20" t="n">
-        <v>513.2826333388689</v>
+        <v>922.5820433455021</v>
       </c>
       <c r="F20" t="n">
-        <v>513.2826333388689</v>
+        <v>511.5961385558946</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>96.52368840089105</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>96.52368840089105</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939507</v>
@@ -5788,16 +5788,16 @@
         <v>2755.806928794323</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.806928794323</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W20" t="n">
-        <v>2403.038273524209</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X20" t="n">
-        <v>2403.038273524209</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y20" t="n">
-        <v>2012.898941548397</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>270.9995076393828</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574644</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574644</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574644</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G22" t="n">
         <v>66.51211643218339</v>
@@ -5913,49 +5913,49 @@
         <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915318</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484844</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610487</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046005</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>680.6375233676399</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>452.6479724696226</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.6479724696226</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1311.909787855437</v>
+        <v>1792.126722677731</v>
       </c>
       <c r="C23" t="n">
-        <v>942.9472709150257</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>942.9472709150257</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
         <v>892.5704713767946</v>
@@ -5980,61 +5980,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="Y23" t="n">
-        <v>1698.509627919559</v>
+        <v>1792.126722677731</v>
       </c>
     </row>
     <row r="24">
@@ -6044,70 +6044,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
@@ -6129,34 +6129,34 @@
         <v>363.5187033424295</v>
       </c>
       <c r="D25" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,28 +6168,28 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V25" t="n">
-        <v>1161.740577577775</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W25" t="n">
-        <v>872.3234075408147</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X25" t="n">
-        <v>872.3234075408147</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y25" t="n">
         <v>714.1033511005761</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883008</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539437</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W26" t="n">
-        <v>2735.306770649777</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X26" t="n">
-        <v>2735.306770649777</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y26" t="n">
-        <v>2345.167438673965</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>270.9995076393842</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>270.9995076393842</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>214.4252100145765</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6414,22 +6414,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.6479724696239</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1639.433183287318</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1281.167484680567</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>895.3792320823229</v>
       </c>
       <c r="F29" t="n">
         <v>821.1650657389509</v>
@@ -6460,13 +6460,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.936093944079</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W29" t="n">
-        <v>2345.167438673965</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X29" t="n">
-        <v>2345.167438673965</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y29" t="n">
-        <v>2345.167438673965</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>234.2149530574645</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>234.2149530574645</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>234.2149530574645</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1227.09874134186</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>972.4142531359726</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>682.9970830990119</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X31" t="n">
-        <v>455.0075322009945</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y31" t="n">
-        <v>234.2149530574645</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1381.278680221567</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C32" t="n">
-        <v>1381.278680221567</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D32" t="n">
-        <v>1381.278680221567</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E32" t="n">
-        <v>995.4904276233224</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X32" t="n">
-        <v>2158.0178522615</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.878520285688</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6785,7 +6785,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>462.6853918125577</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C34" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>872.3234075408147</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>644.3338566427974</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>644.3338566427974</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1405.526882613611</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>1036.5643656732</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>821.1650657389509</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>821.1650657389509</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
@@ -6937,22 +6937,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6970,19 +6970,19 @@
         <v>3119.628073993394</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.09759726723</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923659</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W35" t="n">
-        <v>2182.266054653545</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="X35" t="n">
-        <v>2182.266054653545</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y35" t="n">
-        <v>1792.126722677733</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>452.6479724696239</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C37" t="n">
-        <v>452.6479724696239</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D37" t="n">
-        <v>361.3151575124869</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218343</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046018</v>
+        <v>1217.564443830595</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676413</v>
+        <v>928.1472737936348</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696239</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.6479724696239</v>
+        <v>700.1577228956174</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1477.112184968822</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C38" t="n">
-        <v>1108.149668028411</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
-        <v>749.8839694216604</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7192,34 +7192,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>2921.009325907709</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2589.946438564139</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2237.177783294024</v>
+        <v>2410.926331152342</v>
       </c>
       <c r="X38" t="n">
-        <v>1863.712025032944</v>
+        <v>2037.460572891262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1863.712025032944</v>
+        <v>1647.321240915451</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>697.9541770656748</v>
+        <v>443.0505103572859</v>
       </c>
       <c r="C40" t="n">
-        <v>529.0179941377679</v>
+        <v>274.114327429379</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>274.114327429379</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
         <v>1617.076751502319</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1470.04538620654</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1215.360898000653</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W40" t="n">
-        <v>925.9437279636921</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X40" t="n">
-        <v>697.9541770656748</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y40" t="n">
-        <v>697.9541770656748</v>
+        <v>624.6989751875257</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1888.09808975843</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C41" t="n">
-        <v>1519.135572818019</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D41" t="n">
-        <v>1160.869874211268</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>775.0816216130238</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136266</v>
+        <v>3181.594906913448</v>
       </c>
       <c r="W41" t="n">
-        <v>3038.303020059443</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X41" t="n">
-        <v>2664.837261798364</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y41" t="n">
-        <v>2274.697929822552</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="42">
@@ -7466,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>701.1808689801002</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C43" t="n">
-        <v>532.2446860521933</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D43" t="n">
-        <v>382.1280466398576</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1762.374944995322</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1473.272078120965</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1218.587589915078</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>929.1704198781175</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>701.1808689801002</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>701.1808689801002</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2277.953133796418</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C44" t="n">
-        <v>1908.990616856006</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1550.724918249256</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y44" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218343</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7839,19 +7839,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>468.9531604059532</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y46" t="n">
-        <v>248.1605812624231</v>
+        <v>417.09676419033</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111062</v>
+        <v>15.73946458758435</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>162.5250787169187</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>95.47307296480844</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>45.23892476959739</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>111.7724247982643</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22716,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>42.72706169548923</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22783,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>102.1563989766595</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>197.9966223098521</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,19 +22868,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6.200014427034034</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22944,25 +22944,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>81.15086629930269</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>86.89006039333881</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23029,19 +23029,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>146.1766526166182</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>359.1100798908467</v>
       </c>
     </row>
     <row r="9">
@@ -23190,13 +23190,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>4.664242834610263</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>115.245920710272</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>84.40502415665543</v>
+        <v>308.3141070704067</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>107.6163744673968</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>82.46169202986761</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>240.2596737416858</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>273.3926764100066</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>16.1421360569671</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>16.14213605696597</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,16 +23737,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>234.11865849637</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>345.0560688812221</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>69.12041821276456</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.3178052723335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>10.19584368876087</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>11.86547352390537</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>130.8301120625286</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.335964134056894</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>211.325614676025</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>332.057338529413</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>68.10750358912699</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>61.94679747625855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>343.5923386966494</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>166.6308927084668</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24606,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>92.60691836965279</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>333.4040210617732</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>66.54216182877269</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>2.335964134057065</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.5414662356957</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>174.0238667465106</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>234.2939374761837</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>86.4821347540168</v>
+        <v>3.55697697365656</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>141.4377346857767</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.907372490047067</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>58.19598621064669</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,7 +25362,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>55.26562759029164</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>163.5503731422505</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>335.5614355219867</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>86.32882178227675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>53.08411721864798</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>170.5349263790313</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>173.9989569713583</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>3.556976973656532</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>56.27854221392974</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>358.5862092445533</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>66.54216182877167</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>183.3889571555938</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>785399.4003928013</v>
+        <v>525126.3469434618</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>785399.4003928013</v>
+        <v>717311.7412719773</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>785399.4003928013</v>
+        <v>785399.4003928014</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862861.7948325111</v>
+        <v>862861.7948325113</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862861.7948325111</v>
+        <v>862861.7948325112</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862861.794832511</v>
+        <v>862861.7948325112</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862861.7948325115</v>
+        <v>862861.7948325111</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862861.7948325116</v>
+        <v>862861.7948325112</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862861.7948325113</v>
+        <v>862861.7948325115</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862861.7948325115</v>
+        <v>862861.7948325112</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862861.7948325115</v>
+        <v>862861.7948325112</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862861.7948325115</v>
+        <v>862861.7948325113</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943087</v>
+        <v>203966.5811971124</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943085</v>
+        <v>279547.2423401895</v>
       </c>
       <c r="D2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943088</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709203</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709205</v>
@@ -26331,28 +26331,28 @@
         <v>340997.0989709207</v>
       </c>
       <c r="H2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="I2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="I2" t="n">
-        <v>340997.0989709205</v>
-      </c>
       <c r="J2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="K2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
+        <v>340997.0989709205</v>
+      </c>
+      <c r="M2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="M2" t="n">
-        <v>340997.0989709206</v>
-      </c>
       <c r="N2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709205</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>308174.1417414034</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>99404.18284596095</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.97981719</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447151</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>24921.83922824962</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20992.13942082913</v>
+        <v>15438.57384129047</v>
       </c>
       <c r="C4" t="n">
-        <v>20992.13942082914</v>
+        <v>18888.92742949786</v>
       </c>
       <c r="D4" t="n">
-        <v>20992.13942082913</v>
+        <v>20992.13942082915</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211613</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
         <v>10990.29103211609</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139326</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="G5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="H5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="I5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="G5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="H5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-927937.5276641763</v>
+        <v>-555640.5479583124</v>
       </c>
       <c r="C6" t="n">
-        <v>186814.255911743</v>
+        <v>-133369.7768995438</v>
       </c>
       <c r="D6" t="n">
-        <v>186814.2559117432</v>
+        <v>92114.78951548479</v>
       </c>
       <c r="E6" t="n">
-        <v>70151.29826215983</v>
+        <v>73279.86863041436</v>
       </c>
       <c r="F6" t="n">
-        <v>252224.2780793501</v>
+        <v>255352.848447605</v>
       </c>
       <c r="G6" t="n">
-        <v>252224.2780793503</v>
+        <v>255352.8484476052</v>
       </c>
       <c r="H6" t="n">
-        <v>252224.2780793502</v>
+        <v>255352.8484476051</v>
       </c>
       <c r="I6" t="n">
-        <v>252224.2780793498</v>
+        <v>255352.8484476054</v>
       </c>
       <c r="J6" t="n">
-        <v>84619.10026936761</v>
+        <v>186353.6940284908</v>
       </c>
       <c r="K6" t="n">
-        <v>252224.2780793501</v>
+        <v>183701.3201331336</v>
       </c>
       <c r="L6" t="n">
-        <v>252224.2780793503</v>
+        <v>230431.0092193554</v>
       </c>
       <c r="M6" t="n">
-        <v>204672.0122859353</v>
+        <v>207800.5826541902</v>
       </c>
       <c r="N6" t="n">
-        <v>252224.2780793501</v>
+        <v>255352.848447605</v>
       </c>
       <c r="O6" t="n">
-        <v>252224.2780793502</v>
+        <v>255352.848447605</v>
       </c>
       <c r="P6" t="n">
-        <v>252224.2780793501</v>
+        <v>255352.848447605</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26773,7 +26773,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>239.6556507682059</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>80.35422757985498</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757585</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387588</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974798</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003807</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781687</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970247</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098818</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003797</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33745,7 +33745,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>379.9148430313198</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>423.1432842295773</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419607</v>
+        <v>110.1576450365134</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35272,7 +35272,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597696</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306614</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127284</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865553991</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37393,7 +37393,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
